--- a/data/trans_dic/IP17-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP17-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>18,08%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,84; 22,08</t>
+          <t>17,21; 26,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,99; 16,7</t>
+          <t>17,94; 26,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 17,98</t>
+          <t>14,18; 22,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 18,54</t>
+          <t>14,27; 24,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,0; 16,02</t>
+          <t>12,71; 20,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 18,08</t>
+          <t>15,32; 23,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,6; 19,99</t>
+          <t>12,73; 20,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,27; 15,35</t>
+          <t>12,69; 21,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 17,89</t>
+          <t>15,99; 21,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 16,17</t>
+          <t>17,46; 24,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,66; 17,87</t>
+          <t>14,71; 20,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,51; 16,22</t>
+          <t>14,86; 21,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>13,69%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 26,01</t>
+          <t>14,84; 22,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,94; 26,36</t>
+          <t>9,99; 16,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,18; 22,06</t>
+          <t>10,94; 17,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 24,05</t>
+          <t>11,76; 18,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 20,8</t>
+          <t>9,0; 16,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,32; 23,82</t>
+          <t>11,27; 18,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,73; 20,73</t>
+          <t>12,6; 19,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,69; 21,9</t>
+          <t>9,27; 15,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,99; 21,98</t>
+          <t>12,7; 17,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,46; 24,02</t>
+          <t>11,32; 16,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,71; 20,1</t>
+          <t>12,66; 17,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,86; 21,45</t>
+          <t>11,51; 16,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP17-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP17-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,68%</t>
+          <t>39,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>41,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>40,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>29,34%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,21; 33,88</t>
+          <t>27,04; 40,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,8; 39,93</t>
+          <t>33,26; 46,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,0; 33,83</t>
+          <t>28,45; 41,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,29; 29,66</t>
+          <t>22,45; 39,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,39; 37,54</t>
+          <t>32,9; 48,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,39; 41,68</t>
+          <t>34,3; 48,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,05; 36,26</t>
+          <t>27,61; 40,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,67; 28,42</t>
+          <t>20,48; 38,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,0; 34,4</t>
+          <t>31,72; 41,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31,82; 39,16</t>
+          <t>35,06; 45,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,47; 33,72</t>
+          <t>29,68; 39,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,88; 27,27</t>
+          <t>23,13; 34,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>18,13%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,21; 26,01</t>
+          <t>19,59; 28,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 26,36</t>
+          <t>20,76; 29,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 22,06</t>
+          <t>15,55; 23,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,27; 24,05</t>
+          <t>13,75; 23,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 20,8</t>
+          <t>16,23; 23,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,32; 23,82</t>
+          <t>19,06; 28,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,73; 20,73</t>
+          <t>15,95; 25,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,69; 21,9</t>
+          <t>12,88; 22,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 21,98</t>
+          <t>18,98; 24,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 24,02</t>
+          <t>21,38; 27,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,71; 20,1</t>
+          <t>16,73; 22,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,86; 21,45</t>
+          <t>14,87; 21,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>17,31%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,84; 22,08</t>
+          <t>14,14; 25,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,99; 16,7</t>
+          <t>8,52; 17,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,94; 17,98</t>
+          <t>14,89; 24,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,76; 18,54</t>
+          <t>12,28; 21,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,0; 16,02</t>
+          <t>10,95; 21,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,27; 18,08</t>
+          <t>12,67; 22,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,6; 19,99</t>
+          <t>13,38; 22,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 15,35</t>
+          <t>12,81; 23,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,7; 17,89</t>
+          <t>13,94; 21,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,32; 16,17</t>
+          <t>11,71; 18,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,66; 17,87</t>
+          <t>14,88; 21,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,51; 16,22</t>
+          <t>14,27; 21,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>12,04%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 24,96</t>
+          <t>11,93; 20,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 25,27</t>
+          <t>10,32; 18,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,19; 22,11</t>
+          <t>7,3; 15,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,22; 19,77</t>
+          <t>10,61; 18,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,38; 22,11</t>
+          <t>7,12; 14,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,19; 25,42</t>
+          <t>8,52; 16,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,03; 22,98</t>
+          <t>9,8; 18,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 17,96</t>
+          <t>6,88; 13,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,4; 22,84</t>
+          <t>10,63; 16,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,05; 24,67</t>
+          <t>10,28; 16,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,44; 21,8</t>
+          <t>9,14; 15,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,81; 18,17</t>
+          <t>9,63; 14,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22,39%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22,71%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19,72%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22,98%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,05%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22,84%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20,0; 25,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20,23; 25,15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17,63; 22,27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15,19; 20,17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 22,1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>20,24; 25,56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 22,91</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12,9; 18,0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19,33; 22,75</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20,94; 24,66</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18,3; 21,67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 18,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP17-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP17-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,04; 40,61</t>
+          <t>26,79; 40,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,26; 46,57</t>
+          <t>33,56; 46,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,45; 41,62</t>
+          <t>27,66; 40,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,45; 39,46</t>
+          <t>22,23; 40,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,9; 48,98</t>
+          <t>33,94; 48,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,3; 48,01</t>
+          <t>34,66; 47,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,61; 40,07</t>
+          <t>27,76; 40,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,48; 38,53</t>
+          <t>19,95; 37,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,72; 41,94</t>
+          <t>31,76; 41,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,06; 45,02</t>
+          <t>35,97; 45,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,68; 39,33</t>
+          <t>29,38; 38,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,13; 34,9</t>
+          <t>23,47; 35,42</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,59; 28,54</t>
+          <t>19,82; 28,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,76; 29,44</t>
+          <t>21,18; 29,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,55; 23,3</t>
+          <t>15,21; 23,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 23,71</t>
+          <t>14,01; 23,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,23; 23,8</t>
+          <t>15,71; 23,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,06; 28,33</t>
+          <t>18,72; 28,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,95; 25,06</t>
+          <t>16,19; 25,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 22,7</t>
+          <t>12,75; 22,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,98; 24,82</t>
+          <t>19,28; 24,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,38; 27,85</t>
+          <t>21,25; 27,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,73; 22,73</t>
+          <t>16,92; 22,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,87; 21,48</t>
+          <t>14,96; 21,99</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 25,33</t>
+          <t>14,24; 25,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 17,28</t>
+          <t>8,89; 17,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,89; 24,08</t>
+          <t>14,73; 23,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,28; 21,96</t>
+          <t>12,81; 22,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,95; 21,47</t>
+          <t>10,83; 21,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 22,34</t>
+          <t>12,45; 22,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,38; 22,3</t>
+          <t>12,91; 21,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,81; 23,49</t>
+          <t>12,61; 23,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,94; 21,39</t>
+          <t>14,19; 21,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,71; 18,18</t>
+          <t>11,89; 18,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 21,48</t>
+          <t>14,9; 21,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 21,27</t>
+          <t>13,93; 21,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 20,23</t>
+          <t>12,25; 20,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 18,37</t>
+          <t>10,17; 18,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 15,15</t>
+          <t>7,36; 15,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,61; 18,55</t>
+          <t>10,54; 18,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,13</t>
+          <t>7,09; 14,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,52; 16,82</t>
+          <t>8,39; 16,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,8; 18,53</t>
+          <t>9,73; 18,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 13,12</t>
+          <t>6,86; 12,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,63; 16,3</t>
+          <t>10,85; 16,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 16,32</t>
+          <t>10,31; 16,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,14; 15,35</t>
+          <t>9,33; 15,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,87</t>
+          <t>9,64; 14,68</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,0; 25,04</t>
+          <t>20,09; 25,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,23; 25,15</t>
+          <t>20,18; 25,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,63; 22,27</t>
+          <t>17,44; 22,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 20,17</t>
+          <t>15,09; 20,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,18; 22,1</t>
+          <t>17,32; 22,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,24; 25,56</t>
+          <t>20,65; 25,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,06; 22,91</t>
+          <t>18,34; 23,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,9; 18,0</t>
+          <t>13,06; 17,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,33; 22,75</t>
+          <t>19,18; 22,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,94; 24,66</t>
+          <t>21,07; 24,77</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,3; 21,67</t>
+          <t>18,4; 21,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,78; 18,24</t>
+          <t>14,78; 18,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP17-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP17-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>41,2%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41,06%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33,75%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>33,07%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>39,81%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>34,56%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>30,21%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>41,2%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>41,06%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>33,75%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,34%</t>
+          <t>29,21%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,79; 40,62</t>
+          <t>33,99; 48,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,56; 46,61</t>
+          <t>34,36; 47,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,66; 40,93</t>
+          <t>27,38; 40,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,23; 40,49</t>
+          <t>19,75; 38,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,94; 48,74</t>
+          <t>26,57; 40,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,66; 47,97</t>
+          <t>33,16; 46,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,76; 40,66</t>
+          <t>28,31; 42,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,95; 37,16</t>
+          <t>22,06; 39,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,76; 41,51</t>
+          <t>31,61; 42,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,97; 45,29</t>
+          <t>35,9; 44,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,38; 38,75</t>
+          <t>29,7; 38,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,47; 35,42</t>
+          <t>22,83; 35,16</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>19,67%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23,33%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>24,06%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>25,05%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>19,01%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>18,6%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>19,67%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>23,33%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>20,52%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>18,11%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,82; 28,35</t>
+          <t>16,16; 24,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,18; 29,99</t>
+          <t>18,72; 28,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,21; 23,45</t>
+          <t>16,52; 25,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,01; 23,93</t>
+          <t>12,87; 22,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,71; 23,75</t>
+          <t>20,07; 28,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,72; 28,19</t>
+          <t>21,0; 30,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 25,27</t>
+          <t>15,33; 23,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,75; 22,96</t>
+          <t>14,28; 23,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,28; 24,53</t>
+          <t>18,96; 25,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,25; 27,63</t>
+          <t>21,13; 27,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,92; 22,96</t>
+          <t>16,77; 22,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,96; 21,99</t>
+          <t>15,21; 21,52</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17,38%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>19,39%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>12,57%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>19,16%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>17,32%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>15,48%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>17,25%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>17,38%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>17,68%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 25,15</t>
+          <t>10,83; 20,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,89; 17,84</t>
+          <t>12,8; 22,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,73; 23,96</t>
+          <t>13,33; 22,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,81; 22,44</t>
+          <t>13,14; 24,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,83; 21,42</t>
+          <t>14,06; 25,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,45; 22,33</t>
+          <t>8,53; 17,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,91; 21,81</t>
+          <t>14,59; 24,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,61; 23,14</t>
+          <t>12,76; 22,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,19; 21,27</t>
+          <t>14,11; 21,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,89; 18,46</t>
+          <t>11,84; 18,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 21,91</t>
+          <t>14,99; 21,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 21,27</t>
+          <t>14,11; 21,67</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>10,46%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>16,11%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>14,2%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>10,81%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>14,19%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10,46%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>12,24%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>13,63%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,25; 20,8</t>
+          <t>7,37; 14,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 18,57</t>
+          <t>8,45; 16,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 15,31</t>
+          <t>9,99; 18,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,54; 18,15</t>
+          <t>5,73; 12,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 14,54</t>
+          <t>12,44; 20,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,39; 16,56</t>
+          <t>10,41; 18,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,73; 18,53</t>
+          <t>7,22; 15,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 12,92</t>
+          <t>10,24; 18,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,46</t>
+          <t>10,76; 16,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 16,69</t>
+          <t>10,53; 16,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 15,05</t>
+          <t>9,5; 15,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 14,68</t>
+          <t>9,01; 14,12</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22,98%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>22,39%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>22,71%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>19,72%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>17,42%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>19,62%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>22,98%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>20,47%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>16,25%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,09; 25,18</t>
+          <t>17,38; 22,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,18; 25,29</t>
+          <t>20,19; 25,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,44; 22,18</t>
+          <t>18,03; 22,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,09; 20,16</t>
+          <t>12,55; 17,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,32; 22,32</t>
+          <t>19,96; 24,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,65; 25,9</t>
+          <t>20,18; 25,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,34; 23,08</t>
+          <t>17,19; 22,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,06; 17,82</t>
+          <t>15,09; 19,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,18; 22,81</t>
+          <t>19,4; 22,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,07; 24,77</t>
+          <t>21,05; 24,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,4; 21,81</t>
+          <t>18,44; 21,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,78; 18,12</t>
+          <t>14,46; 18,06</t>
         </is>
       </c>
     </row>
